--- a/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2020-21.xlsx
+++ b/player_d_dash/defense-dash-3pt_SeasonType_Playoffs_Season_2020-21.xlsx
@@ -1299,37 +1299,37 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Donte DiVincenzo</t>
+          <t>Bam Adebayo</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>63.2%</t>
+          <t>38.7%</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1349,12 +1349,12 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>33.8</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-8.8</t>
+          <t>-11.4</t>
         </is>
       </c>
     </row>
@@ -1364,37 +1364,37 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Bam Adebayo</t>
+          <t>Donte DiVincenzo</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>38.7%</t>
+          <t>63.2%</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>33.8</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>-11.4</t>
+          <t>-8.8</t>
         </is>
       </c>
     </row>
@@ -2209,22 +2209,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Evan Fournier</t>
+          <t>Ja Morant</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -2239,12 +2239,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>36.5%</t>
+          <t>38.0%</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2254,17 +2254,17 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>51.9</t>
+          <t>55.6</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>41.8</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>16.2</t>
         </is>
       </c>
     </row>
@@ -2274,22 +2274,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Rui Hachimura</t>
+          <t>Evan Fournier</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>39.1%</t>
+          <t>36.5%</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.8</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>44.4</t>
+          <t>51.9</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>41.8</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>10.0</t>
         </is>
       </c>
     </row>
@@ -2339,22 +2339,22 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Ja Morant</t>
+          <t>Rui Hachimura</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2369,12 +2369,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>38.0%</t>
+          <t>39.1%</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2384,7 +2384,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>55.6</t>
+          <t>44.4</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2394,7 +2394,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>16.2</t>
+          <t>5.0</t>
         </is>
       </c>
     </row>
@@ -2534,22 +2534,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Julius Randle</t>
+          <t>De'Andre Hunter</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2564,12 +2564,12 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>38.8%</t>
+          <t>40.6%</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2579,17 +2579,17 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>37.3</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>-18.1</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -2599,22 +2599,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>De'Andre Hunter</t>
+          <t>Julius Randle</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2629,12 +2629,12 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>40.6%</t>
+          <t>38.8%</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2644,17 +2644,17 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>19.2</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>37.3</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>-18.1</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Reggie Bullock</t>
+          <t>Derrick Rose</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2674,12 +2674,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>35.6%</t>
+          <t>38.2%</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2709,17 +2709,17 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>42.3</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>36.7</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>3.8</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Derrick Rose</t>
+          <t>Reggie Bullock</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2739,12 +2739,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -2759,12 +2759,12 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>38.2%</t>
+          <t>35.6%</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2774,17 +2774,17 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>42.3</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>36.7</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -2859,22 +2859,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Tristan Thompson</t>
+          <t>RJ Barrett</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2889,12 +2889,12 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>43.9%</t>
+          <t>40.3%</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2.4</t>
+          <t>2.2</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2904,17 +2904,17 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>48.0</t>
+          <t>44.0</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>40.3</t>
+          <t>36.6</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>7.4</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2989,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>RJ Barrett</t>
+          <t>Romeo Langford</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3004,27 +3004,27 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>40.3%</t>
+          <t>37.0%</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.3</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -3034,17 +3034,17 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>41.3</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>7.4</t>
+          <t>3.7</t>
         </is>
       </c>
     </row>
@@ -3054,7 +3054,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Romeo Langford</t>
+          <t>Tristan Thompson</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3064,32 +3064,32 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>37.0%</t>
+          <t>43.9%</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -3099,17 +3099,17 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>48.0</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>41.3</t>
+          <t>40.3</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>3.7</t>
+          <t>7.7</t>
         </is>
       </c>
     </row>
@@ -3834,17 +3834,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>LeBron James</t>
+          <t>Jeff Green</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3859,17 +3859,17 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>44.8%</t>
+          <t>35.1%</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>23.1</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>39.5</t>
+          <t>34.4</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>-11.3</t>
         </is>
       </c>
     </row>
@@ -3899,17 +3899,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Jeff Green</t>
+          <t>LeBron James</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3924,17 +3924,17 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>35.1%</t>
+          <t>44.8%</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>23.1</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>34.4</t>
+          <t>39.5</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>-11.3</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Trevor Ariza</t>
+          <t>Duncan Robinson</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4624,7 +4624,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4644,12 +4644,12 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>30.2%</t>
+          <t>39.0%</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -4659,17 +4659,17 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-13.5</t>
         </is>
       </c>
     </row>
@@ -4679,42 +4679,42 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Duncan Robinson</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>39.0%</t>
+          <t>39.2%</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4724,17 +4724,17 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>-13.5</t>
+          <t>-2.4</t>
         </is>
       </c>
     </row>
@@ -4809,42 +4809,42 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Trevor Ariza</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>39.2%</t>
+          <t>30.2%</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -4854,17 +4854,17 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>-2.4</t>
+          <t>-4.6</t>
         </is>
       </c>
     </row>
@@ -4939,22 +4939,22 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Goran Dragic</t>
+          <t>Davis Bertans</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>35.7%</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
@@ -4989,12 +4989,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>39.2</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>1.8</t>
+          <t>0.8</t>
         </is>
       </c>
     </row>
@@ -5004,7 +5004,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Andre Iguodala</t>
+          <t>Goran Dragic</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -5014,12 +5014,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -5034,12 +5034,12 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>42.9%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -5049,17 +5049,17 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>13.3</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>-24.6</t>
+          <t>1.8</t>
         </is>
       </c>
     </row>
@@ -5069,22 +5069,22 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Davis Bertans</t>
+          <t>Andre Iguodala</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>37</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -5099,12 +5099,12 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>35.7%</t>
+          <t>42.9%</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -5114,17 +5114,17 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>13.3</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>38.0</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>-24.6</t>
         </is>
       </c>
     </row>
@@ -5329,42 +5329,42 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Monte Morris</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>30.9%</t>
+          <t>45.5%</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.7</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -5374,17 +5374,17 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>48.6</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>39.7</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -5394,17 +5394,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Tobias Harris</t>
+          <t>Aaron Gordon</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5414,22 +5414,22 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>29.2%</t>
+          <t>32.7%</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -5439,17 +5439,17 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>-3.5</t>
+          <t>-1.4</t>
         </is>
       </c>
     </row>
@@ -5524,42 +5524,42 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Monte Morris</t>
+          <t>Tobias Harris</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>45.5%</t>
+          <t>29.2%</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>1.7</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -5569,17 +5569,17 @@
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>48.6</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>39.7</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>-3.5</t>
         </is>
       </c>
     </row>
@@ -5589,42 +5589,42 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Aaron Gordon</t>
+          <t>Ben Simmons</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>30.9%</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -5634,17 +5634,17 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>-1.4</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Desmond Bane</t>
+          <t>Jayson Tatum</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -5814,12 +5814,12 @@
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>45.9%</t>
+          <t>25.4%</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>1.6</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -5829,17 +5829,17 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>6.9</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -5849,12 +5849,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Jayson Tatum</t>
+          <t>Desmond Bane</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5864,7 +5864,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -5879,12 +5879,12 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>25.4%</t>
+          <t>45.9%</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.6</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -5894,17 +5894,17 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>6.9</t>
         </is>
       </c>
     </row>
@@ -6044,17 +6044,17 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Mike Conley</t>
+          <t>Alex Caruso</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6074,12 +6074,12 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>25.3%</t>
+          <t>38.5%</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -6089,17 +6089,17 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>45.0</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>38.9</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>6.1</t>
         </is>
       </c>
     </row>
@@ -6109,17 +6109,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Alex Caruso</t>
+          <t>Mike Conley</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>38.5%</t>
+          <t>25.3%</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -6154,17 +6154,17 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>45.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>38.9</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>6.1</t>
+          <t>-1.0</t>
         </is>
       </c>
     </row>
@@ -6824,42 +6824,42 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Ivica Zubac</t>
+          <t>George Hill</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>28.5%</t>
+          <t>32.7%</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -6869,17 +6869,17 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>47.1</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>36.2</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>8.9</t>
+          <t>-8.4</t>
         </is>
       </c>
     </row>
@@ -6889,42 +6889,42 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>CJ Elleby</t>
+          <t>Grant Williams</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>85.7%</t>
+          <t>41.4%</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>1.5</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -6934,17 +6934,17 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>41.7</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>32.0</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>18.0</t>
+          <t>3.4</t>
         </is>
       </c>
     </row>
@@ -6954,42 +6954,42 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Grant Williams</t>
+          <t>Jordan Clarkson</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>41.4%</t>
+          <t>37.5%</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -6999,17 +6999,17 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>41.7</t>
+          <t>45.5</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>5.5</t>
         </is>
       </c>
     </row>
@@ -7019,42 +7019,42 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>George Hill</t>
+          <t>Ivica Zubac</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>32.7%</t>
+          <t>28.5%</t>
         </is>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.4</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -7064,17 +7064,17 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>27.8</t>
+          <t>47.1</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t>36.2</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>-8.4</t>
+          <t>8.9</t>
         </is>
       </c>
     </row>
@@ -7149,42 +7149,42 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Kyle Kuzma</t>
+          <t>CJ Elleby</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>46.2%</t>
+          <t>85.7%</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -7194,17 +7194,17 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>22.2</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t>38.2</t>
+          <t>32.0</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>-15.9</t>
+          <t>18.0</t>
         </is>
       </c>
     </row>
@@ -7214,42 +7214,42 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Jordan Clarkson</t>
+          <t>Kyle Kuzma</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>37.5%</t>
+          <t>46.2%</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -7259,17 +7259,17 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>45.5</t>
+          <t>22.2</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>38.2</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>5.5</t>
+          <t>-15.9</t>
         </is>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Daniel Gafford</t>
+          <t>Raul Neto</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -7614,12 +7614,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -7629,17 +7629,17 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>17.3%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -7649,17 +7649,17 @@
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>40.1</t>
+          <t>43.8</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2.8</t>
+          <t>-15.3</t>
         </is>
       </c>
     </row>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Raul Neto</t>
+          <t>Daniel Gafford</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -7679,12 +7679,12 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -7694,17 +7694,17 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>17.3%</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -7714,17 +7714,17 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>43.8</t>
+          <t>40.1</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>-15.3</t>
+          <t>2.8</t>
         </is>
       </c>
     </row>
@@ -7864,42 +7864,42 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Aaron Nesmith</t>
+          <t>Luke Kennard</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>31.0%</t>
+          <t>48.1%</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
@@ -7909,17 +7909,17 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>30.8</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>-8.5</t>
+          <t>0.0</t>
         </is>
       </c>
     </row>
@@ -7929,42 +7929,42 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Luke Kennard</t>
+          <t>Aaron Nesmith</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>48.1%</t>
+          <t>31.0%</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -7974,17 +7974,17 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>30.8</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>-8.5</t>
         </is>
       </c>
     </row>
@@ -8254,37 +8254,37 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Robert Williams III</t>
+          <t>Matisse Thybulle</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>28.0%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I122" t="inlineStr">
@@ -8304,12 +8304,12 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>-26.2</t>
+          <t>-23.2</t>
         </is>
       </c>
     </row>
@@ -8319,42 +8319,42 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Matisse Thybulle</t>
+          <t>Wesley Matthews</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -8364,17 +8364,17 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>-23.2</t>
+          <t>5.8</t>
         </is>
       </c>
     </row>
@@ -8384,42 +8384,42 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Wesley Matthews</t>
+          <t>Robert Williams III</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>28.0%</t>
         </is>
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -8429,17 +8429,17 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>5.8</t>
+          <t>-26.2</t>
         </is>
       </c>
     </row>
@@ -8709,42 +8709,42 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Torrey Craig</t>
+          <t>Rajon Rondo</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>41.3%</t>
+          <t>37.3%</t>
         </is>
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -8754,17 +8754,17 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>27.9</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>-11.5</t>
+          <t>-1.9</t>
         </is>
       </c>
     </row>
@@ -8774,42 +8774,42 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Rajon Rondo</t>
+          <t>Torrey Craig</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>37.3%</t>
+          <t>41.3%</t>
         </is>
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -8819,17 +8819,17 @@
       </c>
       <c r="K130" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>27.9</t>
         </is>
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>-1.9</t>
+          <t>-11.5</t>
         </is>
       </c>
     </row>
@@ -8904,22 +8904,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jevon Carter</t>
+          <t>Alfonzo McKinnie</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -8934,12 +8934,12 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -8949,17 +8949,17 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>-33.3</t>
         </is>
       </c>
     </row>
@@ -8969,27 +8969,27 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Brandon Clarke</t>
+          <t>Bruno Fernando</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -8999,12 +8999,12 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>57.1%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -9014,17 +9014,17 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t>39.8</t>
+          <t>37.2</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>10.2</t>
+          <t>-37.2</t>
         </is>
       </c>
     </row>
@@ -9034,17 +9034,17 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Immanuel Quickley</t>
+          <t>Jevon Carter</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -9054,22 +9054,22 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>43.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -9079,17 +9079,17 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>60.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>23.2</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -9099,42 +9099,42 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Bruno Fernando</t>
+          <t>Serge Ibaka</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>30.8%</t>
         </is>
       </c>
       <c r="I135" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J135" t="inlineStr">
@@ -9144,17 +9144,17 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t>37.2</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>-37.2</t>
+          <t>-11.0</t>
         </is>
       </c>
     </row>
@@ -9164,7 +9164,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Chandler Hutchison</t>
+          <t>Cassius Winston</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -9174,12 +9174,12 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -9194,12 +9194,12 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -9209,17 +9209,17 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>36.4</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>-35.9</t>
+          <t>13.6</t>
         </is>
       </c>
     </row>
@@ -9229,12 +9229,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Max Strus</t>
+          <t>Chandler Hutchison</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9244,27 +9244,27 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -9274,17 +9274,17 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>7.6</t>
+          <t>-35.9</t>
         </is>
       </c>
     </row>
@@ -9294,32 +9294,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Gabe Vincent</t>
+          <t>Justin Jackson</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -9344,12 +9344,12 @@
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>31.3</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>3.6</t>
+          <t>18.8</t>
         </is>
       </c>
     </row>
@@ -9359,42 +9359,42 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cassius Winston</t>
+          <t>Jabari Parker</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.8</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -9404,17 +9404,17 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>36.4</t>
+          <t>38.7</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>13.6</t>
+          <t>-1.2</t>
         </is>
       </c>
     </row>
@@ -9424,42 +9424,42 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Serge Ibaka</t>
+          <t>Immanuel Quickley</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>30.8%</t>
+          <t>43.5%</t>
         </is>
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.2</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -9469,17 +9469,17 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>60.0</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>-11.0</t>
+          <t>23.2</t>
         </is>
       </c>
     </row>
@@ -9489,42 +9489,42 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Jabari Parker</t>
+          <t>Gabe Vincent</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
@@ -9534,17 +9534,17 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>37.5</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>-1.2</t>
+          <t>3.6</t>
         </is>
       </c>
     </row>
@@ -9554,42 +9554,42 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Alfonzo McKinnie</t>
+          <t>Max Strus</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
@@ -9599,17 +9599,17 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>-33.3</t>
+          <t>7.6</t>
         </is>
       </c>
     </row>
@@ -9619,27 +9619,27 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Justin Jackson</t>
+          <t>Ben McLemore</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -9649,12 +9649,12 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>40.0%</t>
         </is>
       </c>
       <c r="I143" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
@@ -9664,17 +9664,17 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>18.8</t>
+          <t>-15.6</t>
         </is>
       </c>
     </row>
@@ -9684,22 +9684,22 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Ben McLemore</t>
+          <t>Brandon Clarke</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -9709,17 +9709,17 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>40.0%</t>
+          <t>57.1%</t>
         </is>
       </c>
       <c r="I144" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
@@ -9729,17 +9729,17 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>39.8</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>-15.6</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -10139,17 +10139,17 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Markieff Morris</t>
+          <t>Rondae Hollis-Jefferson</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -10169,12 +10169,12 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>36.8%</t>
+          <t>46.7%</t>
         </is>
       </c>
       <c r="I151" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
@@ -10184,17 +10184,17 @@
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>28.6</t>
         </is>
       </c>
       <c r="L151" t="inlineStr">
         <is>
-          <t>37.6</t>
+          <t>37.8</t>
         </is>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>-23.4</t>
+          <t>-9.2</t>
         </is>
       </c>
     </row>
@@ -10204,22 +10204,22 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Tyus Jones</t>
+          <t>Markieff Morris</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>31</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -10229,17 +10229,17 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>46.7%</t>
+          <t>36.8%</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
@@ -10249,17 +10249,17 @@
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>28.6</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>36.9</t>
+          <t>37.6</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>-8.3</t>
+          <t>-23.4</t>
         </is>
       </c>
     </row>
@@ -10269,22 +10269,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rondae Hollis-Jefferson</t>
+          <t>Tyus Jones</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -10294,7 +10294,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -10319,12 +10319,12 @@
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>37.8</t>
+          <t>36.9</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>-9.2</t>
+          <t>-8.3</t>
         </is>
       </c>
     </row>
@@ -10529,42 +10529,42 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Lou Williams</t>
+          <t>JaVale McGee</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>34.9%</t>
+          <t>25.0%</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
@@ -10574,17 +10574,17 @@
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>35.8</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>-5.9</t>
+          <t>-15.8</t>
         </is>
       </c>
     </row>
@@ -10659,42 +10659,42 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>JaVale McGee</t>
+          <t>Lou Williams</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>25.0%</t>
+          <t>34.9%</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
@@ -10704,17 +10704,17 @@
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>35.8</t>
+          <t>39.3</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>-15.8</t>
+          <t>-5.9</t>
         </is>
       </c>
     </row>
@@ -10919,42 +10919,42 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Dario Saric</t>
+          <t>Trent Forrest</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>24.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
@@ -10964,17 +10964,17 @@
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>37.4</t>
+          <t>31.2</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>0.7</t>
+          <t>2.1</t>
         </is>
       </c>
     </row>
@@ -10984,42 +10984,42 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Nemanja Bjelica</t>
+          <t>Dario Saric</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>24.4%</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
@@ -11029,17 +11029,17 @@
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>29.3</t>
+          <t>37.4</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>-29.3</t>
+          <t>0.7</t>
         </is>
       </c>
     </row>
@@ -11049,22 +11049,22 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Trent Forrest</t>
+          <t>Semi Ojeleye</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -11074,7 +11074,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J165" t="inlineStr">
@@ -11094,17 +11094,17 @@
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>31.2</t>
+          <t>35.3</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>2.1</t>
+          <t>31.3</t>
         </is>
       </c>
     </row>
@@ -11114,17 +11114,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Semi Ojeleye</t>
+          <t>Nemanja Bjelica</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -11139,17 +11139,17 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
@@ -11159,17 +11159,17 @@
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>35.3</t>
+          <t>29.3</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>31.3</t>
+          <t>-29.3</t>
         </is>
       </c>
     </row>
@@ -11374,17 +11374,17 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Xavier Tillman</t>
+          <t>Abdel Nader</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -11399,17 +11399,17 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>44.4%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
@@ -11419,17 +11419,17 @@
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>75.0</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>-14.4</t>
+          <t>36.6</t>
         </is>
       </c>
     </row>
@@ -11439,17 +11439,17 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Abdel Nader</t>
+          <t>Xavier Tillman</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -11464,17 +11464,17 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>44.4%</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
@@ -11484,17 +11484,17 @@
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>36.6</t>
+          <t>-14.4</t>
         </is>
       </c>
     </row>
@@ -11504,22 +11504,22 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Tony Snell</t>
+          <t>Mamadi Diakite</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -11534,7 +11534,7 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>36.0%</t>
+          <t>40.9%</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
@@ -11554,12 +11554,12 @@
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>37.9</t>
+          <t>29.8</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>-15.7</t>
+          <t>-7.5</t>
         </is>
       </c>
     </row>
@@ -11569,22 +11569,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Mamadi Diakite</t>
+          <t>Tony Snell</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -11599,7 +11599,7 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>40.9%</t>
+          <t>36.0%</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
@@ -11619,12 +11619,12 @@
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>29.8</t>
+          <t>37.9</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>-7.5</t>
+          <t>-15.7</t>
         </is>
       </c>
     </row>
@@ -11764,42 +11764,42 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Shake Milton</t>
+          <t>Shaquille Harrison</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>35.9%</t>
+          <t>35.0%</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -11809,17 +11809,17 @@
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>14.3</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>38.1</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>-24.8</t>
+          <t>4.8</t>
         </is>
       </c>
     </row>
@@ -11829,42 +11829,42 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Shaquille Harrison</t>
+          <t>Shake Milton</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>35.0%</t>
+          <t>35.9%</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -11874,17 +11874,17 @@
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>14.3</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>38.1</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>4.8</t>
+          <t>-24.8</t>
         </is>
       </c>
     </row>
@@ -12024,42 +12024,42 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Marc Gasol</t>
+          <t>Trey Burke</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>10.4%</t>
+          <t>66.7%</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -12069,17 +12069,17 @@
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>37.1</t>
+          <t>42.5</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>-17.1</t>
+          <t>7.5</t>
         </is>
       </c>
     </row>
@@ -12089,22 +12089,22 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Keljin Blevins</t>
+          <t>Jalen Smith</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
@@ -12119,12 +12119,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -12134,17 +12134,17 @@
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>29.4</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>-40.9</t>
+          <t>70.6</t>
         </is>
       </c>
     </row>
@@ -12154,37 +12154,37 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Harry Giles III</t>
+          <t>Will Barton</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
@@ -12204,12 +12204,12 @@
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>38.8</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>-40.9</t>
+          <t>-38.8</t>
         </is>
       </c>
     </row>
@@ -12219,12 +12219,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Jalen Smith</t>
+          <t>Bol Bol</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -12234,7 +12234,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -12249,32 +12249,32 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L183" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>35.6</t>
         </is>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>70.6</t>
+          <t>-35.6</t>
         </is>
       </c>
     </row>
@@ -12284,12 +12284,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Jarrell Brantley</t>
+          <t>Keljin Blevins</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>UTA</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -12299,7 +12299,7 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
@@ -12334,12 +12334,12 @@
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>36.8</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>-36.8</t>
+          <t>-40.9</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Tremont Waters</t>
+          <t>KZ Okpala</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-G</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -12379,7 +12379,7 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
@@ -12399,12 +12399,12 @@
       </c>
       <c r="L185" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>42.9</t>
         </is>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>-35.7</t>
+          <t>-42.9</t>
         </is>
       </c>
     </row>
@@ -12414,17 +12414,17 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Will Barton</t>
+          <t>Frank Ntilikina</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
@@ -12434,17 +12434,17 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
@@ -12464,12 +12464,12 @@
       </c>
       <c r="L186" t="inlineStr">
         <is>
-          <t>38.8</t>
+          <t>40.5</t>
         </is>
       </c>
       <c r="M186" t="inlineStr">
         <is>
-          <t>-38.8</t>
+          <t>-40.5</t>
         </is>
       </c>
     </row>
@@ -12479,17 +12479,17 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Frank Ntilikina</t>
+          <t>Tremont Waters</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>NYK</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>100.0%</t>
         </is>
       </c>
       <c r="I187" t="inlineStr">
@@ -12529,12 +12529,12 @@
       </c>
       <c r="L187" t="inlineStr">
         <is>
-          <t>40.5</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M187" t="inlineStr">
         <is>
-          <t>-40.5</t>
+          <t>-35.7</t>
         </is>
       </c>
     </row>
@@ -12609,42 +12609,42 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Trey Burke</t>
+          <t>Jarrell Brantley</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>UTA</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>66.7%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -12654,17 +12654,17 @@
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L189" t="inlineStr">
         <is>
-          <t>42.5</t>
+          <t>36.8</t>
         </is>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>7.5</t>
+          <t>-36.8</t>
         </is>
       </c>
     </row>
@@ -12674,42 +12674,42 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Vlatko Cancar</t>
+          <t>Jeff Teague</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>34.1%</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -12719,17 +12719,17 @@
       </c>
       <c r="K190" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>64.3</t>
         </is>
       </c>
       <c r="L190" t="inlineStr">
         <is>
-          <t>38.4</t>
+          <t>36.0</t>
         </is>
       </c>
       <c r="M190" t="inlineStr">
         <is>
-          <t>-38.4</t>
+          <t>28.3</t>
         </is>
       </c>
     </row>
@@ -12739,62 +12739,62 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Axel Toupane</t>
+          <t>Marc Gasol</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>10.4%</t>
         </is>
       </c>
       <c r="I191" t="inlineStr">
         <is>
+          <t>0.2</t>
+        </is>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="J191" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="K191" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="L191" t="inlineStr">
         <is>
-          <t>31.1</t>
+          <t>37.1</t>
         </is>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>68.9</t>
+          <t>-17.1</t>
         </is>
       </c>
     </row>
@@ -12804,17 +12804,17 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Paul Millsap</t>
+          <t>Jared Dudley</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
@@ -12824,22 +12824,22 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>25.7%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -12849,17 +12849,17 @@
       </c>
       <c r="K192" t="inlineStr">
         <is>
-          <t>11.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L192" t="inlineStr">
         <is>
-          <t>39.4</t>
+          <t>35.9</t>
         </is>
       </c>
       <c r="M192" t="inlineStr">
         <is>
-          <t>-28.3</t>
+          <t>-35.9</t>
         </is>
       </c>
     </row>
@@ -12934,7 +12934,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Bol Bol</t>
+          <t>Paul Millsap</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -12944,32 +12944,32 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>100.0%</t>
+          <t>25.7%</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -12979,17 +12979,17 @@
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>11.1</t>
         </is>
       </c>
       <c r="L194" t="inlineStr">
         <is>
-          <t>35.6</t>
+          <t>39.4</t>
         </is>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>-35.6</t>
+          <t>-28.3</t>
         </is>
       </c>
     </row>
@@ -12999,42 +12999,42 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Jeff Teague</t>
+          <t>Harry Giles III</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>34.1%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -13044,17 +13044,17 @@
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>64.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L195" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>40.9</t>
         </is>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>28.3</t>
+          <t>-40.9</t>
         </is>
       </c>
     </row>
@@ -13064,42 +13064,42 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Dwight Howard</t>
+          <t>Vlatko Cancar</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>C-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>18.8%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -13109,17 +13109,17 @@
       </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L196" t="inlineStr">
         <is>
-          <t>38.6</t>
+          <t>38.4</t>
         </is>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>-38.4</t>
         </is>
       </c>
     </row>
@@ -13129,12 +13129,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Jared Dudley</t>
+          <t>Dwight Howard</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -13144,27 +13144,27 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C-F</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>18.8%</t>
         </is>
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -13174,17 +13174,17 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L197" t="inlineStr">
         <is>
-          <t>35.9</t>
+          <t>38.6</t>
         </is>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>-35.9</t>
+          <t>-5.3</t>
         </is>
       </c>
     </row>
@@ -13194,22 +13194,22 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>KZ Okpala</t>
+          <t>Axel Toupane</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>F-G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -13224,12 +13224,12 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -13239,17 +13239,17 @@
       </c>
       <c r="K198" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L198" t="inlineStr">
         <is>
-          <t>42.9</t>
+          <t>31.1</t>
         </is>
       </c>
       <c r="M198" t="inlineStr">
         <is>
-          <t>-42.9</t>
+          <t>68.9</t>
         </is>
       </c>
     </row>
@@ -13324,22 +13324,22 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Isaiah Joe</t>
+          <t>Nicolo Melli</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -13354,12 +13354,12 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
@@ -13369,17 +13369,17 @@
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L200" t="inlineStr">
         <is>
-          <t>39.1</t>
+          <t>40.6</t>
         </is>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>-39.1</t>
+          <t>9.4</t>
         </is>
       </c>
     </row>
@@ -13389,42 +13389,42 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Dwight Powell</t>
+          <t>Isaiah Joe</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>23.5%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
@@ -13434,17 +13434,17 @@
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L201" t="inlineStr">
         <is>
-          <t>38.3</t>
+          <t>39.1</t>
         </is>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>-13.3</t>
+          <t>-39.1</t>
         </is>
       </c>
     </row>
@@ -13454,7 +13454,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Nicolo Melli</t>
+          <t>Dwight Powell</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -13464,32 +13464,32 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>23.5%</t>
         </is>
       </c>
       <c r="I202" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J202" t="inlineStr">
@@ -13499,17 +13499,17 @@
       </c>
       <c r="K202" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L202" t="inlineStr">
         <is>
-          <t>40.6</t>
+          <t>38.3</t>
         </is>
       </c>
       <c r="M202" t="inlineStr">
         <is>
-          <t>9.4</t>
+          <t>-13.3</t>
         </is>
       </c>
     </row>
@@ -13519,17 +13519,17 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ish Smith</t>
+          <t>Elijah Bryant</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
@@ -13544,17 +13544,17 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>10.3%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>0.2</t>
+          <t>0.4</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
@@ -13564,17 +13564,17 @@
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="L203" t="inlineStr">
         <is>
-          <t>35.7</t>
+          <t>41.5</t>
         </is>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>-2.3</t>
+          <t>25.2</t>
         </is>
       </c>
     </row>
@@ -13584,17 +13584,17 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Elijah Bryant</t>
+          <t>Ish Smith</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
@@ -13609,17 +13609,17 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>10.3%</t>
         </is>
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>0.4</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
@@ -13629,17 +13629,17 @@
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>66.7</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L204" t="inlineStr">
         <is>
-          <t>41.5</t>
+          <t>35.7</t>
         </is>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>25.2</t>
+          <t>-2.3</t>
         </is>
       </c>
     </row>
@@ -13714,22 +13714,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>T.J. Leaf</t>
+          <t>Timothe Luwawu-Cabarrot</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>POR</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -13744,32 +13744,32 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>50.0%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I206" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J206" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L206" t="inlineStr">
         <is>
-          <t>31.9</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>68.1</t>
+          <t>-43.5</t>
         </is>
       </c>
     </row>
@@ -13779,22 +13779,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Isaac Bonga</t>
+          <t>Paul Reed</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>WAS</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -13809,32 +13809,32 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>16.7%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I207" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
           <t>0.5</t>
         </is>
       </c>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L207" t="inlineStr">
         <is>
-          <t>34.0</t>
+          <t>27.5</t>
         </is>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>-27.5</t>
         </is>
       </c>
     </row>
@@ -13844,32 +13844,32 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Sam Merrill</t>
+          <t>Amir Coffey</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>G-F</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -13894,12 +13894,12 @@
       </c>
       <c r="L208" t="inlineStr">
         <is>
-          <t>33.6</t>
+          <t>32.3</t>
         </is>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>-33.6</t>
+          <t>-32.3</t>
         </is>
       </c>
     </row>
@@ -13909,42 +13909,42 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Nathan Knight</t>
+          <t>Isaac Bonga</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>WAS</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>16.7%</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
@@ -13954,17 +13954,17 @@
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L209" t="inlineStr">
         <is>
-          <t>31.5</t>
+          <t>34.0</t>
         </is>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>18.6</t>
+          <t>66.0</t>
         </is>
       </c>
     </row>
@@ -13974,42 +13974,42 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Frank Kaminsky</t>
+          <t>Jay Scrubb</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>F-C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>11.4%</t>
+          <t>33.3%</t>
         </is>
       </c>
       <c r="I210" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
@@ -14019,17 +14019,17 @@
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L210" t="inlineStr">
         <is>
-          <t>30.2</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="M210" t="inlineStr">
         <is>
-          <t>-5.2</t>
+          <t>-40.0</t>
         </is>
       </c>
     </row>
@@ -14039,7 +14039,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Jay Scrubb</t>
+          <t>Daniel Oturu</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -14049,32 +14049,32 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
@@ -14084,17 +14084,17 @@
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L211" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>37.7</t>
         </is>
       </c>
       <c r="M211" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
@@ -14104,34 +14104,34 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Amir Coffey</t>
+          <t>Sam Merrill</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H212" t="inlineStr">
         <is>
           <t>50.0%</t>
@@ -14154,12 +14154,12 @@
       </c>
       <c r="L212" t="inlineStr">
         <is>
-          <t>32.3</t>
+          <t>33.6</t>
         </is>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>-32.3</t>
+          <t>-33.6</t>
         </is>
       </c>
     </row>
@@ -14234,42 +14234,42 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Paul Reed</t>
+          <t>Nathan Knight</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>28.6%</t>
         </is>
       </c>
       <c r="I214" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J214" t="inlineStr">
@@ -14279,17 +14279,17 @@
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="L214" t="inlineStr">
         <is>
-          <t>27.5</t>
+          <t>31.5</t>
         </is>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>-27.5</t>
+          <t>18.6</t>
         </is>
       </c>
     </row>
@@ -14299,42 +14299,42 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Daniel Oturu</t>
+          <t>Frank Kaminsky</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F-C</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>28.6%</t>
+          <t>11.4%</t>
         </is>
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.1</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -14344,17 +14344,17 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="L215" t="inlineStr">
         <is>
-          <t>37.7</t>
+          <t>30.2</t>
         </is>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>-5.2</t>
         </is>
       </c>
     </row>
@@ -14364,22 +14364,22 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Timothe Luwawu-Cabarrot</t>
+          <t>T.J. Leaf</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>POR</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>G-F</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -14394,12 +14394,12 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>33.3%</t>
+          <t>50.0%</t>
         </is>
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -14409,17 +14409,17 @@
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L216" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>31.9</t>
         </is>
       </c>
       <c r="M216" t="inlineStr">
         <is>
-          <t>-43.5</t>
+          <t>68.1</t>
         </is>
       </c>
     </row>
@@ -14559,34 +14559,34 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Chris Chiozza</t>
+          <t>Thanasis Antetokounmpo</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>BKN</t>
+          <t>MIL</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
         <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
           <t>3</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="H219" t="inlineStr">
         <is>
           <t>20.0%</t>
@@ -14594,27 +14594,27 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
+          <t>0.1</t>
+        </is>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="J219" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
       <c r="K219" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>33.3</t>
         </is>
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>43.5</t>
+          <t>38.5</t>
         </is>
       </c>
       <c r="M219" t="inlineStr">
         <is>
-          <t>56.5</t>
+          <t>-5.1</t>
         </is>
       </c>
     </row>
@@ -14624,22 +14624,22 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Skylar Mays</t>
+          <t>Alize Johnson</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BKN</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -14659,27 +14659,27 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
           <t>0.3</t>
         </is>
       </c>
-      <c r="J220" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="L220" t="inlineStr">
         <is>
-          <t>30.9</t>
+          <t>7.7</t>
         </is>
       </c>
       <c r="M220" t="inlineStr">
         <is>
-          <t>69.1</t>
+          <t>-7.7</t>
         </is>
       </c>
     </row>
@@ -14689,7 +14689,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Alize Johnson</t>
+          <t>Chris Chiozza</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -14704,7 +14704,7 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -14719,12 +14719,12 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>14.3%</t>
+          <t>20.0%</t>
         </is>
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -14734,17 +14734,17 @@
       </c>
       <c r="K221" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>43.5</t>
         </is>
       </c>
       <c r="M221" t="inlineStr">
         <is>
-          <t>-7.7</t>
+          <t>56.5</t>
         </is>
       </c>
     </row>
@@ -14754,42 +14754,42 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Thanasis Antetokounmpo</t>
+          <t>Skylar Mays</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>MIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>23</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>20.0%</t>
+          <t>14.3%</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>0.1</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -14799,17 +14799,17 @@
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>33.3</t>
+          <t>100</t>
         </is>
       </c>
       <c r="L222" t="inlineStr">
         <is>
-          <t>38.5</t>
+          <t>30.9</t>
         </is>
       </c>
       <c r="M222" t="inlineStr">
         <is>
-          <t>-5.1</t>
+          <t>69.1</t>
         </is>
       </c>
     </row>
